--- a/xlsx/蒙特利尔_intext.xlsx
+++ b/xlsx/蒙特利尔_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="825">
   <si>
     <t>蒙特利尔</t>
   </si>
@@ -29,7 +29,7 @@
     <t>拉丁语短语列表 (C字头)</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_蒙特利尔</t>
+    <t>政策_政策_混合动力车辆_蒙特利尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BA%E5%9F%9F%E5%B1%85%E6%B0%91%E7%A7%B0%E8%B0%93%E8%AF%8D</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A5%E5%A4%AA%E8%8F%AF%E6%B2%B3</t>
   </si>
   <si>
-    <t>渥太華河</t>
+    <t>渥太华河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94%E5%B2%9B</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>中古法語</t>
+    <t>中古法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%B1%B1</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%A6%8F%E9%9F%B3</t>
   </si>
   <si>
-    <t>傳福音</t>
+    <t>传福音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E6%B4%9B%E9%AD%81%E8%81%94%E7%9B%9F</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%95%E8%98%AD%E8%A5%BF</t>
   </si>
   <si>
-    <t>新法蘭西</t>
+    <t>新法兰西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%9C%8D%E5%85%8B%E4%BA%BA</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/1929%E5%B9%B4%E8%8F%AF%E7%88%BE%E8%A1%97%E8%82%A1%E7%81%BD</t>
   </si>
   <si>
-    <t>1929年華爾街股災</t>
+    <t>1929年华尔街股灾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%9A%E8%A6%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>世界博覽會</t>
+    <t>世界博览会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1976%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/2005%E5%B9%B4%E4%B8%96%E7%95%8C%E6%B8%B8%E6%B3%B3%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>2005年世界游泳錦標賽</t>
+    <t>2005年世界游泳锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E5%B8%82</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%85%A7%E6%99%82%E6%95%B8</t>
   </si>
   <si>
-    <t>日照時數</t>
+    <t>日照时数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8</t>
@@ -551,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E7%89%A9%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>購物中心</t>
+    <t>购物中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%A4%A8</t>
   </si>
   <si>
-    <t>旅館</t>
+    <t>旅馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E8%A1%8C</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AD%E5%9F%8E</t>
   </si>
   <si>
-    <t>賭城</t>
+    <t>赌城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/La_Ronde</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E5%9F%BA%E7%88%BE</t>
   </si>
   <si>
-    <t>朗基爾</t>
+    <t>朗基尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%93%A6%E5%8B%92</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>雙語</t>
+    <t>双语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94%E4%BC%9A%E8%AE%AE%E4%B8%AD%E5%BF%83</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E5%93%81</t>
   </si>
   <si>
-    <t>消費品</t>
+    <t>消费品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E8%B7%AF</t>
@@ -845,13 +845,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9C%8B%E5%AE%B6%E9%90%B5%E8%B7%AF%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>加拿大國家鐵路公司</t>
+    <t>加拿大国家铁路公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%A4%AA%E5%B9%B3%E6%B4%8B%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>加拿大太平洋鐵路</t>
+    <t>加拿大太平洋铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E5%8A%A0%E9%87%8C</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E6%B3%95%E8%AA%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>加拿大法語頻道</t>
+    <t>加拿大法语频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E4%B8%9A</t>
@@ -1001,13 +1001,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%9A%87%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>加拿大皇家銀行</t>
+    <t>加拿大皇家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>蒙特利爾銀行</t>
+    <t>蒙特利尔银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9B%BD%E5%AE%B6%E9%93%B6%E8%A1%8C</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%B9%B3%E9%9D%A2%E8%A8%AD%E8%A8%88%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國際平面設計協會</t>
+    <t>国际平面设计协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%85%83</t>
@@ -1139,13 +1139,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E9%A6%AC%E6%88%B2%E5%9C%98</t>
   </si>
   <si>
-    <t>太陽馬戲團</t>
+    <t>太阳马戏团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%BB%E7%AC%91%E7%AF%80</t>
   </si>
   <si>
-    <t>嘻笑節</t>
+    <t>嘻笑节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B9%A6%E9%83%BD</t>
@@ -1175,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%93%E6%A8%B9%E7%B3%96%E6%BC%BF</t>
   </si>
   <si>
-    <t>楓樹糖漿</t>
+    <t>枫树糖浆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E7%90%83</t>
@@ -1193,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家冰球聯盟</t>
+    <t>国家冰球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E5%88%A9%E6%9D%AF</t>
@@ -1205,13 +1205,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E6%A5%93%E8%91%89%E9%9A%8A</t>
   </si>
   <si>
-    <t>多倫多楓葉隊</t>
+    <t>多伦多枫叶队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E6%A3%95%E7%86%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>波士頓棕熊隊</t>
+    <t>波士顿棕熊队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E6%A9%84%E6%A6%84%E7%90%83%E8%81%94%E7%9B%9F</t>
@@ -1247,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A9%81%E5%8D%9A%E8%A6%BD%E6%9C%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>蒙特婁博覽會隊</t>
+    <t>蒙特娄博览会队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%8C%E6%A3%92%E5%A4%A7%E8%81%94%E7%9B%9F</t>
@@ -1289,13 +1289,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%82%91%E6%96%AF%E6%9D%AF</t>
   </si>
   <si>
-    <t>羅傑斯杯</t>
+    <t>罗杰斯杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ATP%E4%B8%96%E7%95%8C%E5%B7%A1%E8%BF%B4%E8%B3%BD1000%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>ATP世界巡迴賽1000大師賽</t>
+    <t>ATP世界巡回赛1000大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AD%90%E7%BD%91%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A</t>
@@ -1307,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%8C%E5%BF%97%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>世界同志運動會</t>
+    <t>世界同志运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94%E5%8A%A0%E6%8B%BF%E5%A4%A7%E4%BA%BA</t>
@@ -1325,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%88%BE%E5%BC%8F%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>蓋爾式足球</t>
+    <t>盖尔式足球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E6%A3%8D%E7%90%83</t>
@@ -1349,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE%E4%BA%A4%E9%80%9A%E5%B1%80</t>
   </si>
   <si>
-    <t>蒙特利爾交通局</t>
+    <t>蒙特利尔交通局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E5%B0%94%C2%B7%E7%89%B9%E9%B2%81%E5%A4%9A</t>
@@ -1367,13 +1367,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%87%AA%E7%94%B1%E9%BB%A8</t>
   </si>
   <si>
-    <t>加拿大自由黨</t>
+    <t>加拿大自由党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%96%AF%E6%B1%80%C2%B7%E6%9D%9C%E9%AD%AF%E5%A4%9A</t>
   </si>
   <si>
-    <t>賈斯汀·杜魯多</t>
+    <t>贾斯汀·杜鲁多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B%C2%B7%E7%BB%B4%E4%BC%A6%E7%BA%BD%E5%A4%AB</t>
@@ -1415,19 +1415,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%9B%88%E7%9B%88</t>
   </si>
   <si>
-    <t>湯盈盈</t>
+    <t>汤盈盈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E9%9F%BB%E8%A9%A9</t>
   </si>
   <si>
-    <t>何韻詩</t>
+    <t>何韵诗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%88%E9%9C%87%E8%BB%92</t>
   </si>
   <si>
-    <t>沈震軒</t>
+    <t>沈震轩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
@@ -1499,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
@@ -1589,9 +1589,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
   </si>
   <si>
@@ -1787,19 +1784,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國外交部</t>
+    <t>中华民国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%95%99%E8%82%B2%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>國家教育研究院</t>
+    <t>国家教育研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>環境保護署 (香港)</t>
+    <t>环境保护署 (香港)</t>
   </si>
   <si>
     <t>http://en.wikipedia.org/wiki/Montreal_Merger</t>
@@ -1871,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E5%9C%B0%E5%8F%AF%E4%B8%AD%E8%8F%AF%E9%86%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>滿地可中華醫院</t>
+    <t>满地可中华医院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -1895,7 +1892,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%A0%BC%E5%85%A7-%E8%81%96%E7%B4%84%E7%BF%B0%E6%B9%96</t>
   </si>
   <si>
-    <t>薩格內-聖約翰湖</t>
+    <t>萨格内-圣约翰湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%BA%9C%E5%9C%B0%E5%8C%BA_(%E9%AD%81%E5%8C%97%E5%85%8B%E7%9C%81)</t>
@@ -1907,19 +1904,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%BA%97%E7%B5%B2%E5%8D%80</t>
   </si>
   <si>
-    <t>摩麗絲區</t>
+    <t>摩丽丝区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%AC%AC%E5%8D%80</t>
   </si>
   <si>
-    <t>艾第區</t>
+    <t>艾第区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%A1%94%E9%9F%8B%E5%8D%80</t>
   </si>
   <si>
-    <t>烏塔韋區</t>
+    <t>乌塔韦区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%AF%94%E8%92%82%E6%AF%94-%E8%92%82%E7%B1%B3%E6%96%AF%E5%9D%8E%E6%98%8E%E6%A0%BC</t>
@@ -1943,7 +1940,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E6%AF%94%E8%8C%9C-%E9%A6%AC%E5%BE%B7%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>嘉比茜-馬德蘭島</t>
+    <t>嘉比茜-马德兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%96%E8%BF%AA%E8%80%B6-%E9%98%BF%E5%B8%95%E6%8B%89%E4%BB%80</t>
@@ -1985,7 +1982,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%92%82%E8%AB%BE</t>
   </si>
   <si>
-    <t>加蒂諾</t>
+    <t>加蒂诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%86%E6%A0%BC%E4%BC%8A</t>
@@ -2003,7 +2000,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%A0%BC%E5%A5%88_(%E9%AD%81%E5%8C%97%E5%85%8B)</t>
   </si>
   <si>
-    <t>薩格奈 (魁北克)</t>
+    <t>萨格奈 (魁北克)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E7%BB%B4_(%E9%AD%81%E5%8C%97%E5%85%8B)</t>
@@ -2015,7 +2012,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E6%A8%82%E6%B2%99</t>
   </si>
   <si>
-    <t>寶樂沙</t>
+    <t>宝乐沙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B2%B3%E5%B8%82_(%E5%8A%A0%E6%8B%BF%E5%A4%A7)</t>
@@ -2093,7 +2090,7 @@
     <t>https://zh.wikipedia.org/wiki/1916%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1916年夏季奧林匹克運動會</t>
+    <t>1916年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -2141,33 +2138,30 @@
     <t>https://zh.wikipedia.org/wiki/1940%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1940年夏季奧林匹克運動會</t>
+    <t>1940年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%83%BD</t>
   </si>
   <si>
-    <t>東京都</t>
+    <t>东京都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E8%BE%9B%E5%9F%BA</t>
   </si>
   <si>
-    <t>赫爾辛基</t>
+    <t>赫尔辛基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1944%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1944年夏季奧林匹克運動會</t>
+    <t>1944年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1948%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
   </si>
   <si>
@@ -2183,9 +2177,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E8%BE%9B%E5%9F%BA</t>
   </si>
   <si>
-    <t>赫尔辛基</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1956%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
   </si>
   <si>
@@ -2351,25 +2342,25 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%96%E7%95%8C%E5%9C%96%E6%9B%B8%E4%B9%8B%E9%83%BD</t>
   </si>
   <si>
-    <t>Template talk-世界圖書之都</t>
+    <t>Template talk-世界图书之都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%96%E6%9B%B8%E4%B9%8B%E9%83%BD</t>
   </si>
   <si>
-    <t>世界圖書之都</t>
+    <t>世界图书之都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C</t>
   </si>
   <si>
-    <t>馬德里</t>
+    <t>马德里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E6%B8%AF</t>
   </si>
   <si>
-    <t>亞歷山大港</t>
+    <t>亚历山大港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BE%B7%E9%87%8C</t>
@@ -2381,19 +2372,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%89%B9%E8%A1%9B%E6%99%AE</t>
   </si>
   <si>
-    <t>安特衛普</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A9%81</t>
   </si>
   <si>
-    <t>蒙特婁</t>
+    <t>蒙特娄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E9%9D%88</t>
   </si>
   <si>
-    <t>都靈</t>
+    <t>都灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%93%A5%E5%A4%A7</t>
@@ -2405,19 +2393,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%AD%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>貝魯特</t>
+    <t>贝鲁特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%B8%83%E7%88%BE%E9%9B%85%E9%82%A3</t>
   </si>
   <si>
-    <t>盧布爾雅那</t>
+    <t>卢布尔雅那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%AE%9C%E8%AB%BE%E6%96%AF%E8%89%BE%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>布宜諾斯艾利斯</t>
+    <t>布宜诺斯艾利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%B0%B7</t>
@@ -2435,7 +2423,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D%E5%BB%A3%E5%9F%9F%E5%B8%82</t>
   </si>
   <si>
-    <t>仁川廣域市</t>
+    <t>仁川广域市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E7%BD%97%E8%8C%A8%E7%93%A6%E5%A4%AB</t>
@@ -2447,13 +2435,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%8D%E5%85%8B%E9%87%8C</t>
   </si>
   <si>
-    <t>科納克里</t>
+    <t>科纳克里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2471,7 +2459,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2489,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2501,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -10557,7 +10545,7 @@
         <v>523</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>108</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10583,10 +10571,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>524</v>
+      </c>
+      <c r="F267" t="s">
         <v>525</v>
-      </c>
-      <c r="F267" t="s">
-        <v>526</v>
       </c>
       <c r="G267" t="n">
         <v>4</v>
@@ -10612,10 +10600,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>526</v>
+      </c>
+      <c r="F268" t="s">
         <v>527</v>
-      </c>
-      <c r="F268" t="s">
-        <v>528</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10641,10 +10629,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>528</v>
+      </c>
+      <c r="F269" t="s">
         <v>529</v>
-      </c>
-      <c r="F269" t="s">
-        <v>530</v>
       </c>
       <c r="G269" t="n">
         <v>4</v>
@@ -10670,10 +10658,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>530</v>
+      </c>
+      <c r="F270" t="s">
         <v>531</v>
-      </c>
-      <c r="F270" t="s">
-        <v>532</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10699,10 +10687,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>532</v>
+      </c>
+      <c r="F271" t="s">
         <v>533</v>
-      </c>
-      <c r="F271" t="s">
-        <v>534</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10728,10 +10716,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>534</v>
+      </c>
+      <c r="F272" t="s">
         <v>535</v>
-      </c>
-      <c r="F272" t="s">
-        <v>536</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10757,10 +10745,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>536</v>
+      </c>
+      <c r="F273" t="s">
         <v>537</v>
-      </c>
-      <c r="F273" t="s">
-        <v>538</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10786,10 +10774,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>538</v>
+      </c>
+      <c r="F274" t="s">
         <v>539</v>
-      </c>
-      <c r="F274" t="s">
-        <v>540</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10815,10 +10803,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>540</v>
+      </c>
+      <c r="F275" t="s">
         <v>541</v>
-      </c>
-      <c r="F275" t="s">
-        <v>542</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10844,10 +10832,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>542</v>
+      </c>
+      <c r="F276" t="s">
         <v>543</v>
-      </c>
-      <c r="F276" t="s">
-        <v>544</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10873,10 +10861,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>544</v>
+      </c>
+      <c r="F277" t="s">
         <v>545</v>
-      </c>
-      <c r="F277" t="s">
-        <v>546</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10902,10 +10890,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>546</v>
+      </c>
+      <c r="F278" t="s">
         <v>547</v>
-      </c>
-      <c r="F278" t="s">
-        <v>548</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10931,10 +10919,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>548</v>
+      </c>
+      <c r="F279" t="s">
         <v>549</v>
-      </c>
-      <c r="F279" t="s">
-        <v>550</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10960,10 +10948,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>550</v>
+      </c>
+      <c r="F280" t="s">
         <v>551</v>
-      </c>
-      <c r="F280" t="s">
-        <v>552</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10989,10 +10977,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>552</v>
+      </c>
+      <c r="F281" t="s">
         <v>553</v>
-      </c>
-      <c r="F281" t="s">
-        <v>554</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11018,10 +11006,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>554</v>
+      </c>
+      <c r="F282" t="s">
         <v>555</v>
-      </c>
-      <c r="F282" t="s">
-        <v>556</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11047,10 +11035,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>556</v>
+      </c>
+      <c r="F283" t="s">
         <v>557</v>
-      </c>
-      <c r="F283" t="s">
-        <v>558</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11076,10 +11064,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>558</v>
+      </c>
+      <c r="F284" t="s">
         <v>559</v>
-      </c>
-      <c r="F284" t="s">
-        <v>560</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11105,10 +11093,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>560</v>
+      </c>
+      <c r="F285" t="s">
         <v>561</v>
-      </c>
-      <c r="F285" t="s">
-        <v>562</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11134,10 +11122,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>562</v>
+      </c>
+      <c r="F286" t="s">
         <v>563</v>
-      </c>
-      <c r="F286" t="s">
-        <v>564</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11163,10 +11151,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>564</v>
+      </c>
+      <c r="F287" t="s">
         <v>565</v>
-      </c>
-      <c r="F287" t="s">
-        <v>566</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11192,10 +11180,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>566</v>
+      </c>
+      <c r="F288" t="s">
         <v>567</v>
-      </c>
-      <c r="F288" t="s">
-        <v>568</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11221,10 +11209,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>568</v>
+      </c>
+      <c r="F289" t="s">
         <v>569</v>
-      </c>
-      <c r="F289" t="s">
-        <v>570</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11250,10 +11238,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>570</v>
+      </c>
+      <c r="F290" t="s">
         <v>571</v>
-      </c>
-      <c r="F290" t="s">
-        <v>572</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11279,10 +11267,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>572</v>
+      </c>
+      <c r="F291" t="s">
         <v>573</v>
-      </c>
-      <c r="F291" t="s">
-        <v>574</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11308,10 +11296,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>574</v>
+      </c>
+      <c r="F292" t="s">
         <v>575</v>
-      </c>
-      <c r="F292" t="s">
-        <v>576</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -11337,10 +11325,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>576</v>
+      </c>
+      <c r="F293" t="s">
         <v>577</v>
-      </c>
-      <c r="F293" t="s">
-        <v>578</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11366,10 +11354,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>578</v>
+      </c>
+      <c r="F294" t="s">
         <v>579</v>
-      </c>
-      <c r="F294" t="s">
-        <v>580</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11395,10 +11383,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>580</v>
+      </c>
+      <c r="F295" t="s">
         <v>581</v>
-      </c>
-      <c r="F295" t="s">
-        <v>582</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11424,10 +11412,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>582</v>
+      </c>
+      <c r="F296" t="s">
         <v>583</v>
-      </c>
-      <c r="F296" t="s">
-        <v>584</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11453,10 +11441,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>584</v>
+      </c>
+      <c r="F297" t="s">
         <v>585</v>
-      </c>
-      <c r="F297" t="s">
-        <v>586</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11482,10 +11470,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>586</v>
+      </c>
+      <c r="F298" t="s">
         <v>587</v>
-      </c>
-      <c r="F298" t="s">
-        <v>588</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11511,10 +11499,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>588</v>
+      </c>
+      <c r="F299" t="s">
         <v>589</v>
-      </c>
-      <c r="F299" t="s">
-        <v>590</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11540,10 +11528,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>590</v>
+      </c>
+      <c r="F300" t="s">
         <v>591</v>
-      </c>
-      <c r="F300" t="s">
-        <v>592</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11569,10 +11557,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>592</v>
+      </c>
+      <c r="F301" t="s">
         <v>593</v>
-      </c>
-      <c r="F301" t="s">
-        <v>594</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11598,10 +11586,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>594</v>
+      </c>
+      <c r="F302" t="s">
         <v>595</v>
-      </c>
-      <c r="F302" t="s">
-        <v>596</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11627,10 +11615,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>596</v>
+      </c>
+      <c r="F303" t="s">
         <v>597</v>
-      </c>
-      <c r="F303" t="s">
-        <v>598</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -11656,10 +11644,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>598</v>
+      </c>
+      <c r="F304" t="s">
         <v>599</v>
-      </c>
-      <c r="F304" t="s">
-        <v>600</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11685,10 +11673,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>600</v>
+      </c>
+      <c r="F305" t="s">
         <v>601</v>
-      </c>
-      <c r="F305" t="s">
-        <v>602</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11714,10 +11702,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>602</v>
+      </c>
+      <c r="F306" t="s">
         <v>603</v>
-      </c>
-      <c r="F306" t="s">
-        <v>604</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11743,10 +11731,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>604</v>
+      </c>
+      <c r="F307" t="s">
         <v>605</v>
-      </c>
-      <c r="F307" t="s">
-        <v>606</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11772,10 +11760,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>606</v>
+      </c>
+      <c r="F308" t="s">
         <v>607</v>
-      </c>
-      <c r="F308" t="s">
-        <v>608</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11801,10 +11789,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>608</v>
+      </c>
+      <c r="F309" t="s">
         <v>609</v>
-      </c>
-      <c r="F309" t="s">
-        <v>610</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11830,10 +11818,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>610</v>
+      </c>
+      <c r="F310" t="s">
         <v>611</v>
-      </c>
-      <c r="F310" t="s">
-        <v>612</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11859,10 +11847,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>612</v>
+      </c>
+      <c r="F311" t="s">
         <v>613</v>
-      </c>
-      <c r="F311" t="s">
-        <v>614</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11888,10 +11876,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>614</v>
+      </c>
+      <c r="F312" t="s">
         <v>615</v>
-      </c>
-      <c r="F312" t="s">
-        <v>616</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11917,10 +11905,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>616</v>
+      </c>
+      <c r="F313" t="s">
         <v>617</v>
-      </c>
-      <c r="F313" t="s">
-        <v>618</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11946,10 +11934,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>618</v>
+      </c>
+      <c r="F314" t="s">
         <v>619</v>
-      </c>
-      <c r="F314" t="s">
-        <v>620</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11975,10 +11963,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>620</v>
+      </c>
+      <c r="F315" t="s">
         <v>621</v>
-      </c>
-      <c r="F315" t="s">
-        <v>622</v>
       </c>
       <c r="G315" t="n">
         <v>3</v>
@@ -12004,10 +11992,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>622</v>
+      </c>
+      <c r="F316" t="s">
         <v>623</v>
-      </c>
-      <c r="F316" t="s">
-        <v>624</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12033,10 +12021,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>624</v>
+      </c>
+      <c r="F317" t="s">
         <v>625</v>
-      </c>
-      <c r="F317" t="s">
-        <v>626</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12062,10 +12050,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>626</v>
+      </c>
+      <c r="F318" t="s">
         <v>627</v>
-      </c>
-      <c r="F318" t="s">
-        <v>628</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12091,10 +12079,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>628</v>
+      </c>
+      <c r="F319" t="s">
         <v>629</v>
-      </c>
-      <c r="F319" t="s">
-        <v>630</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12120,10 +12108,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>630</v>
+      </c>
+      <c r="F320" t="s">
         <v>631</v>
-      </c>
-      <c r="F320" t="s">
-        <v>632</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12149,10 +12137,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>632</v>
+      </c>
+      <c r="F321" t="s">
         <v>633</v>
-      </c>
-      <c r="F321" t="s">
-        <v>634</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12178,10 +12166,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>634</v>
+      </c>
+      <c r="F322" t="s">
         <v>635</v>
-      </c>
-      <c r="F322" t="s">
-        <v>636</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12207,10 +12195,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>636</v>
+      </c>
+      <c r="F323" t="s">
         <v>637</v>
-      </c>
-      <c r="F323" t="s">
-        <v>638</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12236,10 +12224,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>638</v>
+      </c>
+      <c r="F324" t="s">
         <v>639</v>
-      </c>
-      <c r="F324" t="s">
-        <v>640</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12265,10 +12253,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>640</v>
+      </c>
+      <c r="F325" t="s">
         <v>641</v>
-      </c>
-      <c r="F325" t="s">
-        <v>642</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12294,10 +12282,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>642</v>
+      </c>
+      <c r="F326" t="s">
         <v>643</v>
-      </c>
-      <c r="F326" t="s">
-        <v>644</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12323,10 +12311,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>644</v>
+      </c>
+      <c r="F327" t="s">
         <v>645</v>
-      </c>
-      <c r="F327" t="s">
-        <v>646</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12352,10 +12340,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>646</v>
+      </c>
+      <c r="F328" t="s">
         <v>647</v>
-      </c>
-      <c r="F328" t="s">
-        <v>648</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12381,10 +12369,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>648</v>
+      </c>
+      <c r="F329" t="s">
         <v>649</v>
-      </c>
-      <c r="F329" t="s">
-        <v>650</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12410,10 +12398,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>650</v>
+      </c>
+      <c r="F330" t="s">
         <v>651</v>
-      </c>
-      <c r="F330" t="s">
-        <v>652</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12439,10 +12427,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>652</v>
+      </c>
+      <c r="F331" t="s">
         <v>653</v>
-      </c>
-      <c r="F331" t="s">
-        <v>654</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12468,10 +12456,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>644</v>
+      </c>
+      <c r="F332" t="s">
         <v>645</v>
-      </c>
-      <c r="F332" t="s">
-        <v>646</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12497,10 +12485,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>654</v>
+      </c>
+      <c r="F333" t="s">
         <v>655</v>
-      </c>
-      <c r="F333" t="s">
-        <v>656</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12526,10 +12514,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>656</v>
+      </c>
+      <c r="F334" t="s">
         <v>657</v>
-      </c>
-      <c r="F334" t="s">
-        <v>658</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12555,10 +12543,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>658</v>
+      </c>
+      <c r="F335" t="s">
         <v>659</v>
-      </c>
-      <c r="F335" t="s">
-        <v>660</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12584,10 +12572,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>660</v>
+      </c>
+      <c r="F336" t="s">
         <v>661</v>
-      </c>
-      <c r="F336" t="s">
-        <v>662</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12613,10 +12601,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>662</v>
+      </c>
+      <c r="F337" t="s">
         <v>663</v>
-      </c>
-      <c r="F337" t="s">
-        <v>664</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12642,10 +12630,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>664</v>
+      </c>
+      <c r="F338" t="s">
         <v>665</v>
-      </c>
-      <c r="F338" t="s">
-        <v>666</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12671,10 +12659,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>666</v>
+      </c>
+      <c r="F339" t="s">
         <v>667</v>
-      </c>
-      <c r="F339" t="s">
-        <v>668</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12700,10 +12688,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>668</v>
+      </c>
+      <c r="F340" t="s">
         <v>669</v>
-      </c>
-      <c r="F340" t="s">
-        <v>670</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12729,10 +12717,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>670</v>
+      </c>
+      <c r="F341" t="s">
         <v>671</v>
-      </c>
-      <c r="F341" t="s">
-        <v>672</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12758,10 +12746,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>672</v>
+      </c>
+      <c r="F342" t="s">
         <v>673</v>
-      </c>
-      <c r="F342" t="s">
-        <v>674</v>
       </c>
       <c r="G342" t="n">
         <v>5</v>
@@ -12787,10 +12775,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>674</v>
+      </c>
+      <c r="F343" t="s">
         <v>675</v>
-      </c>
-      <c r="F343" t="s">
-        <v>676</v>
       </c>
       <c r="G343" t="n">
         <v>5</v>
@@ -12816,10 +12804,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>676</v>
+      </c>
+      <c r="F344" t="s">
         <v>677</v>
-      </c>
-      <c r="F344" t="s">
-        <v>678</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12845,10 +12833,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>678</v>
+      </c>
+      <c r="F345" t="s">
         <v>679</v>
-      </c>
-      <c r="F345" t="s">
-        <v>680</v>
       </c>
       <c r="G345" t="n">
         <v>3</v>
@@ -12874,10 +12862,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>680</v>
+      </c>
+      <c r="F346" t="s">
         <v>681</v>
-      </c>
-      <c r="F346" t="s">
-        <v>682</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12903,10 +12891,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>682</v>
+      </c>
+      <c r="F347" t="s">
         <v>683</v>
-      </c>
-      <c r="F347" t="s">
-        <v>684</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12932,10 +12920,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>684</v>
+      </c>
+      <c r="F348" t="s">
         <v>685</v>
-      </c>
-      <c r="F348" t="s">
-        <v>686</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12961,10 +12949,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>686</v>
+      </c>
+      <c r="F349" t="s">
         <v>687</v>
-      </c>
-      <c r="F349" t="s">
-        <v>688</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12990,10 +12978,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>688</v>
+      </c>
+      <c r="F350" t="s">
         <v>689</v>
-      </c>
-      <c r="F350" t="s">
-        <v>690</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13019,10 +13007,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>690</v>
+      </c>
+      <c r="F351" t="s">
         <v>691</v>
-      </c>
-      <c r="F351" t="s">
-        <v>692</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13048,10 +13036,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>692</v>
+      </c>
+      <c r="F352" t="s">
         <v>693</v>
-      </c>
-      <c r="F352" t="s">
-        <v>694</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -13077,10 +13065,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>694</v>
+      </c>
+      <c r="F353" t="s">
         <v>695</v>
-      </c>
-      <c r="F353" t="s">
-        <v>696</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13106,10 +13094,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>696</v>
+      </c>
+      <c r="F354" t="s">
         <v>697</v>
-      </c>
-      <c r="F354" t="s">
-        <v>698</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13135,10 +13123,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>698</v>
+      </c>
+      <c r="F355" t="s">
         <v>699</v>
-      </c>
-      <c r="F355" t="s">
-        <v>700</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13164,10 +13152,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>700</v>
+      </c>
+      <c r="F356" t="s">
         <v>701</v>
-      </c>
-      <c r="F356" t="s">
-        <v>702</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13193,10 +13181,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>702</v>
+      </c>
+      <c r="F357" t="s">
         <v>703</v>
-      </c>
-      <c r="F357" t="s">
-        <v>704</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13222,10 +13210,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>704</v>
+      </c>
+      <c r="F358" t="s">
         <v>705</v>
-      </c>
-      <c r="F358" t="s">
-        <v>706</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13251,10 +13239,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>706</v>
+      </c>
+      <c r="F359" t="s">
         <v>707</v>
-      </c>
-      <c r="F359" t="s">
-        <v>708</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13280,10 +13268,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>708</v>
+      </c>
+      <c r="F360" t="s">
         <v>709</v>
-      </c>
-      <c r="F360" t="s">
-        <v>710</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13309,10 +13297,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>710</v>
+      </c>
+      <c r="F361" t="s">
         <v>711</v>
-      </c>
-      <c r="F361" t="s">
-        <v>712</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13338,10 +13326,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>712</v>
+      </c>
+      <c r="F362" t="s">
         <v>713</v>
-      </c>
-      <c r="F362" t="s">
-        <v>714</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -13367,10 +13355,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F363" t="s">
-        <v>716</v>
+        <v>525</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13396,10 +13384,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F364" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13425,10 +13413,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F365" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13454,10 +13442,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F366" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13483,10 +13471,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F367" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13512,10 +13500,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F368" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13541,10 +13529,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F369" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G369" t="n">
         <v>3</v>
@@ -13570,10 +13558,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F370" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13599,10 +13587,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>708</v>
+      </c>
+      <c r="F371" t="s">
         <v>709</v>
-      </c>
-      <c r="F371" t="s">
-        <v>710</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -13628,10 +13616,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F372" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13657,10 +13645,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F373" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13686,10 +13674,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F374" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13715,10 +13703,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F375" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13773,10 +13761,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F377" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -13802,10 +13790,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F378" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13831,10 +13819,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F379" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13860,10 +13848,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F380" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13889,10 +13877,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F381" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13918,10 +13906,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F382" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13947,10 +13935,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F383" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13976,10 +13964,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F384" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14005,10 +13993,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F385" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G385" t="n">
         <v>3</v>
@@ -14034,10 +14022,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F386" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14063,10 +14051,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F387" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G387" t="n">
         <v>5</v>
@@ -14092,10 +14080,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F388" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G388" t="n">
         <v>23</v>
@@ -14121,10 +14109,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F389" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14150,10 +14138,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F390" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G390" t="n">
         <v>6</v>
@@ -14179,10 +14167,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F391" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G391" t="n">
         <v>7</v>
@@ -14208,10 +14196,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F392" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14237,10 +14225,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F393" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14266,10 +14254,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F394" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14295,10 +14283,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F395" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14324,10 +14312,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F396" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G396" t="n">
         <v>5</v>
@@ -14353,10 +14341,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F397" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14382,10 +14370,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F398" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14411,10 +14399,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F399" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14440,10 +14428,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F400" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14469,10 +14457,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F401" t="s">
-        <v>788</v>
+        <v>697</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14498,10 +14486,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F402" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G402" t="n">
         <v>7</v>
@@ -14527,10 +14515,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F403" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14556,10 +14544,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F404" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14585,10 +14573,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F405" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14614,10 +14602,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F406" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14643,10 +14631,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F407" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14672,10 +14660,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F408" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14701,10 +14689,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F409" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14730,10 +14718,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F410" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14759,10 +14747,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F411" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14788,10 +14776,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F412" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14817,10 +14805,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F413" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G413" t="n">
         <v>3</v>
@@ -14846,10 +14834,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F414" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14875,10 +14863,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F415" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14904,10 +14892,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F416" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14933,10 +14921,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F417" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14962,10 +14950,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F418" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14991,10 +14979,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F419" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15020,10 +15008,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F420" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15049,10 +15037,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F421" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>

--- a/xlsx/蒙特利尔_intext.xlsx
+++ b/xlsx/蒙特利尔_intext.xlsx
@@ -29,7 +29,7 @@
     <t>拉丁语短语列表 (C字头)</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_蒙特利尔</t>
+    <t>体育运动_体育运动_美式足球_蒙特利尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
